--- a/2023 WBC Schedule - App vFinal.xlsx
+++ b/2023 WBC Schedule - App vFinal.xlsx
@@ -2708,11 +2708,11 @@
   <dimension ref="A1:P1084"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="7" topLeftCell="G112" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="7" topLeftCell="G679" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="A112" activeCellId="0" sqref="A112"/>
-      <selection pane="bottomRight" activeCell="M135" activeCellId="0" sqref="M135"/>
+      <selection pane="bottomLeft" activeCell="A679" activeCellId="0" sqref="A679"/>
+      <selection pane="bottomRight" activeCell="E716" activeCellId="0" sqref="E716"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -38246,13 +38246,13 @@
     </row>
     <row r="716" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A716" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B716" s="17" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C716" s="17" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D716" s="18" t="n">
         <v>23</v>
